--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/176.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/176.xlsx
@@ -479,13 +479,13 @@
         <v>-5.281547824240518</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.73010027185372</v>
+        <v>-14.72426110478632</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0419504521439824</v>
+        <v>-0.04684697340678795</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.21710811184758</v>
+        <v>-11.20930509935391</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.026411551308204</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.88106761592167</v>
+        <v>-14.87579141787645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.030724920930439</v>
+        <v>0.02517378452554715</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.92050199096827</v>
+        <v>-10.91322267058827</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.622465890339392</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.2454264040069</v>
+        <v>-15.23966579075655</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06578610794058141</v>
+        <v>0.06066701752946652</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.55908897102242</v>
+        <v>-10.55116812780318</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.123173983912303</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.75834355243721</v>
+        <v>-15.75200687786181</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1976255975567629</v>
+        <v>0.1917602458836696</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.37457914707398</v>
+        <v>-10.36631790398085</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.541471533614893</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.24565215650909</v>
+        <v>-16.23887034363708</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1874266936430583</v>
+        <v>0.1818362803296413</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.21791665126988</v>
+        <v>-10.20930191600003</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.91583223564537</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.82239428129281</v>
+        <v>-16.81455199189061</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3319002555015055</v>
+        <v>0.3246078428186641</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.06986889073565</v>
+        <v>-10.06133270928284</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.27495824274793</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.41347247768822</v>
+        <v>-17.40472681938994</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4774997554043411</v>
+        <v>0.4709666962863198</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.864241182303498</v>
+        <v>-9.855744277759218</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.655029085663676</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.14698183669876</v>
+        <v>-18.13707096344757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.759966189214581</v>
+        <v>0.7525821304118475</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.901829183762093</v>
+        <v>-9.893175171583712</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.084959393969497</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.63350490260014</v>
+        <v>-18.62291322960119</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7968210217140399</v>
+        <v>0.7903534241102272</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.553665574292072</v>
+        <v>-9.54537814659326</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.5868505966917694</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.24219224631767</v>
+        <v>-19.23078885054253</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9223107444519842</v>
+        <v>0.9158562391510133</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.508235283431283</v>
+        <v>-9.499620548161426</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1759698527132874</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.79065499696326</v>
+        <v>-19.77897666282844</v>
       </c>
       <c r="F12" t="n">
-        <v>1.085375376345682</v>
+        <v>1.078056779057158</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.017391757592129</v>
+        <v>-9.008659191596699</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1465553666271177</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.6065280331511</v>
+        <v>-20.59427363769125</v>
       </c>
       <c r="F13" t="n">
-        <v>1.273066629884667</v>
+        <v>1.265224340482473</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.531588768347042</v>
+        <v>-8.521756448912907</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.382763562980848</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.43887118631384</v>
+        <v>-21.42653823703693</v>
       </c>
       <c r="F14" t="n">
-        <v>1.598750755375445</v>
+        <v>1.590005097077172</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.082719165418464</v>
+        <v>-8.071551431094472</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5497654886048131</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.26406594212499</v>
+        <v>-22.25141877757988</v>
       </c>
       <c r="F15" t="n">
-        <v>1.713674989720116</v>
+        <v>1.704588931547959</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.648630772398195</v>
+        <v>-7.636297823121289</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6672559368381332</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.1195562867119</v>
+        <v>-23.10724952204068</v>
       </c>
       <c r="F16" t="n">
-        <v>1.993981193561472</v>
+        <v>1.984528550909745</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.065172296256673</v>
+        <v>-7.053729623573004</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7605940593751588</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.7310584755404</v>
+        <v>-23.71905283383454</v>
       </c>
       <c r="F17" t="n">
-        <v>2.185285922684773</v>
+        <v>2.175676172398946</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.980831681350273</v>
+        <v>-6.968996239581353</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8517771068086878</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.54528188157018</v>
+        <v>-24.53292274768759</v>
       </c>
       <c r="F18" t="n">
-        <v>2.606962812611086</v>
+        <v>2.596305678097921</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.579604968462736</v>
+        <v>-6.5677957112995</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9584800980184164</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.39863818079389</v>
+        <v>-25.38570298558626</v>
       </c>
       <c r="F19" t="n">
-        <v>2.872972221749276</v>
+        <v>2.862184164207694</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.273520020326022</v>
+        <v>-6.262260639882138</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.088522506707343</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.15186454788407</v>
+        <v>-26.13892935267645</v>
       </c>
       <c r="F20" t="n">
-        <v>3.094677278071066</v>
+        <v>3.083889220529483</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.168205536267178</v>
+        <v>-6.155584556327754</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.238164634277879</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.7361740237103</v>
+        <v>-26.72318645929131</v>
       </c>
       <c r="F21" t="n">
-        <v>3.410070853528246</v>
+        <v>3.399727934283283</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.833422260301401</v>
+        <v>-5.821639187743847</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.392229663209317</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.32314123701341</v>
+        <v>-27.31003584186884</v>
       </c>
       <c r="F22" t="n">
-        <v>3.61140428662831</v>
+        <v>3.601977828582267</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.695704326709285</v>
+        <v>-5.682350177810724</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.526026331123879</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.76720596479907</v>
+        <v>-27.75470281558523</v>
       </c>
       <c r="F23" t="n">
-        <v>3.793230188494201</v>
+        <v>3.78396083808226</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.494161416763753</v>
+        <v>-5.481330959978862</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.612778867467247</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.99746029487651</v>
+        <v>-27.98480003802856</v>
       </c>
       <c r="F24" t="n">
-        <v>3.929678168710671</v>
+        <v>3.920277895270311</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.332759507330954</v>
+        <v>-5.319732666003437</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.62708544068503</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.26263179663283</v>
+        <v>-28.25037740117298</v>
       </c>
       <c r="F25" t="n">
-        <v>4.245385959436053</v>
+        <v>4.235907132178643</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.037030570742046</v>
+        <v>-5.024448867711147</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.552375705297136</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.22207184242917</v>
+        <v>-28.2099090930892</v>
       </c>
       <c r="F26" t="n">
-        <v>4.410689375115687</v>
+        <v>4.40032027126504</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.043393429923125</v>
+        <v>-5.03031421938424</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.377758905075304</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.1118870217132</v>
+        <v>-28.10014322606417</v>
       </c>
       <c r="F27" t="n">
-        <v>4.360310193780725</v>
+        <v>4.350569520466481</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.851604285594679</v>
+        <v>-4.839925951459859</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.104033107949038</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.06262068611978</v>
+        <v>-28.0504841213855</v>
       </c>
       <c r="F28" t="n">
-        <v>4.335146787718927</v>
+        <v>4.326322575603604</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.762628995482309</v>
+        <v>-4.75186712254641</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7383192018340573</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.84543247427839</v>
+        <v>-27.83404217080609</v>
       </c>
       <c r="F29" t="n">
-        <v>4.322159223299935</v>
+        <v>4.313596857241446</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.640503994574688</v>
+        <v>-4.630252721449617</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.2973735120144915</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.6980916980976</v>
+        <v>-27.68704179449919</v>
       </c>
       <c r="F30" t="n">
-        <v>4.22116519917886</v>
+        <v>4.213362186685191</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.59379065803541</v>
+        <v>-4.583591754121705</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.1959992768373902</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.25129067901802</v>
+        <v>-27.24068591371622</v>
       </c>
       <c r="F31" t="n">
-        <v>4.073876792209441</v>
+        <v>4.066518918012392</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.679793995402708</v>
+        <v>-4.670668660322026</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.7147091254294397</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.87271365004667</v>
+        <v>-26.86259329995001</v>
       </c>
       <c r="F32" t="n">
-        <v>3.985922701718726</v>
+        <v>3.978983781212611</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.759395196680403</v>
+        <v>-4.750361507719612</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.229100478501863</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.45300060554661</v>
+        <v>-26.44288025544996</v>
       </c>
       <c r="F33" t="n">
-        <v>3.852014628253552</v>
+        <v>3.845206630775854</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.68496545502519</v>
+        <v>-4.678262195970226</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.712034994524687</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.96503738633264</v>
+        <v>-25.95525743610987</v>
       </c>
       <c r="F34" t="n">
-        <v>3.719991846397586</v>
+        <v>3.713733725639241</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.500311615745486</v>
+        <v>-4.494695017826385</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.138691837069224</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.55549706114061</v>
+        <v>-25.54626698763719</v>
       </c>
       <c r="F35" t="n">
-        <v>3.481450088621337</v>
+        <v>3.475034860228891</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.501908876692176</v>
+        <v>-4.497287293789046</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.492441431360425</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.86675028554592</v>
+        <v>-24.85746784283114</v>
       </c>
       <c r="F36" t="n">
-        <v>3.259587924665447</v>
+        <v>3.254193895894656</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.769122777691805</v>
+        <v>-4.765011794599503</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.76279436341488</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.38569980223238</v>
+        <v>-24.37694105163127</v>
       </c>
       <c r="F37" t="n">
-        <v>3.130314526406244</v>
+        <v>3.124658651578618</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.759107166017885</v>
+        <v>-4.755912644124503</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.951892088864412</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.96869686442056</v>
+        <v>-23.96038325211607</v>
       </c>
       <c r="F38" t="n">
-        <v>3.05670959983006</v>
+        <v>3.051210832636535</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.904837588949138</v>
+        <v>-4.901237205667663</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.067220629497394</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.4679948345416</v>
+        <v>-23.45994306829393</v>
       </c>
       <c r="F39" t="n">
-        <v>3.029032471622651</v>
+        <v>3.023428966006392</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.773115930058531</v>
+        <v>-4.770183254221985</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.126807753455326</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.08382739225683</v>
+        <v>-23.07602437976316</v>
       </c>
       <c r="F40" t="n">
-        <v>3.12353271353423</v>
+        <v>3.116777085267899</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.756213767089863</v>
+        <v>-4.754014260212453</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.150008441479031</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.55273812748221</v>
+        <v>-22.54510531492548</v>
       </c>
       <c r="F41" t="n">
-        <v>3.13748910836351</v>
+        <v>3.131440464450632</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.684075178431953</v>
+        <v>-4.681914948463068</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.158739300223075</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.87402005586429</v>
+        <v>-21.86701567384397</v>
       </c>
       <c r="F42" t="n">
-        <v>3.231282365921635</v>
+        <v>3.225574121882643</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.712236721844506</v>
+        <v>-4.709893199635837</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.172853895057849</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.21047596323993</v>
+        <v>-21.20358941194518</v>
       </c>
       <c r="F43" t="n">
-        <v>3.349846260456307</v>
+        <v>3.344059462600264</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.757797935733712</v>
+        <v>-4.754930721411374</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.206603110956978</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.91970900942803</v>
+        <v>-20.91321522721854</v>
       </c>
       <c r="F44" t="n">
-        <v>3.254874695642426</v>
+        <v>3.249559220688685</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.807862901800473</v>
+        <v>-4.805336087352019</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.27237426181369</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.43140539034017</v>
+        <v>-20.42543530024435</v>
       </c>
       <c r="F45" t="n">
-        <v>3.383833878633427</v>
+        <v>3.377968526960334</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.754328475480655</v>
+        <v>-4.752181337814612</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.36995594443697</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.10462151141069</v>
+        <v>-20.09838957525803</v>
       </c>
       <c r="F46" t="n">
-        <v>3.411432453023786</v>
+        <v>3.40569802437911</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.724360194275944</v>
+        <v>-4.723613933013965</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.502268577033099</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.55864629830503</v>
+        <v>-19.55306897729446</v>
       </c>
       <c r="F47" t="n">
-        <v>3.418161896684433</v>
+        <v>3.412715498702275</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.992830956348379</v>
+        <v>-4.992516741080177</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.656643957920088</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.08285892073387</v>
+        <v>-19.07749107656876</v>
       </c>
       <c r="F48" t="n">
-        <v>3.346206600266307</v>
+        <v>3.341152971369401</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.107689729178841</v>
+        <v>-5.107506436939057</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.829909279042007</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.69950320122528</v>
+        <v>-18.6932319881641</v>
       </c>
       <c r="F49" t="n">
-        <v>3.364850039512925</v>
+        <v>3.359901149038752</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.397566406397498</v>
+        <v>-5.396990345072462</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.005870287643134</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.18379739228969</v>
+        <v>-18.17781420989103</v>
       </c>
       <c r="F50" t="n">
-        <v>3.5099913088163</v>
+        <v>3.50407358793184</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.305907194202574</v>
+        <v>-5.307216424486747</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.179766950174091</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.52007000742555</v>
+        <v>-17.51382497897005</v>
       </c>
       <c r="F51" t="n">
-        <v>3.528818040302702</v>
+        <v>3.522481365727307</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.518591653866414</v>
+        <v>-5.519953253361954</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.341141048704311</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.12713072223682</v>
+        <v>-17.12105589371826</v>
       </c>
       <c r="F52" t="n">
-        <v>3.355397396861199</v>
+        <v>3.349610599005155</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.816677204966833</v>
+        <v>-5.816441543515682</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.487869565502249</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.7386166354086</v>
+        <v>-16.73217522241048</v>
       </c>
       <c r="F53" t="n">
-        <v>3.388494738445082</v>
+        <v>3.383074525068607</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845545732732839</v>
+        <v>-5.84562428654989</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.620108405906595</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.54532187625336</v>
+        <v>-16.53802946357052</v>
       </c>
       <c r="F54" t="n">
-        <v>3.122459144701208</v>
+        <v>3.117300777381568</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.019843560464738</v>
+        <v>-6.02053745251535</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.7386913134845</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.25723884452402</v>
+        <v>-16.24943583203035</v>
       </c>
       <c r="F55" t="n">
-        <v>2.975772983662509</v>
+        <v>2.970457508708769</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.15911947809502</v>
+        <v>-6.160598908316135</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.851199250562942</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.9315416267304</v>
+        <v>-15.92288761455202</v>
       </c>
       <c r="F56" t="n">
-        <v>2.922120726617116</v>
+        <v>2.916779067057692</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.474591607369251</v>
+        <v>-6.474840361123245</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.956839086012773</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.38458449091161</v>
+        <v>-15.37600903255028</v>
       </c>
       <c r="F57" t="n">
-        <v>2.962445019369632</v>
+        <v>2.956239267822654</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.731645881363701</v>
+        <v>-6.731986281237586</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.065808222612366</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.1848352264554</v>
+        <v>-15.1757360759804</v>
       </c>
       <c r="F58" t="n">
-        <v>2.805206462240502</v>
+        <v>2.798765049242373</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.708393951516796</v>
+        <v>-6.708537966848055</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.173146103486233</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.84184307660786</v>
+        <v>-14.83240352625897</v>
       </c>
       <c r="F59" t="n">
-        <v>2.934767891162223</v>
+        <v>2.927514755387907</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.817125526617331</v>
+        <v>-6.817557572611108</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.287118898578318</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.78901563464149</v>
+        <v>-14.77896074605905</v>
       </c>
       <c r="F60" t="n">
-        <v>2.753675158255469</v>
+        <v>2.746422022481152</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823763324158086</v>
+        <v>-6.823737139552402</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.399323255601815</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.44405963936769</v>
+        <v>-14.43417495072219</v>
       </c>
       <c r="F61" t="n">
-        <v>2.640033969589286</v>
+        <v>2.63270227999792</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.234914002599651</v>
+        <v>-7.234049910612097</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.512344548127587</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.24218942185112</v>
+        <v>-14.23125734897828</v>
       </c>
       <c r="F62" t="n">
-        <v>2.595467770716051</v>
+        <v>2.587769496645115</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.176037916720409</v>
+        <v>-7.176221208960193</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.617113770906779</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.92365369371192</v>
+        <v>-13.91264306702203</v>
       </c>
       <c r="F63" t="n">
-        <v>2.522831674550154</v>
+        <v>2.515185769690586</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.381207394553098</v>
+        <v>-7.380500410199645</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.710221412493399</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.73913077746064</v>
+        <v>-13.72749172023434</v>
       </c>
       <c r="F64" t="n">
-        <v>2.435741676046993</v>
+        <v>2.427807740524907</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.389442453040544</v>
+        <v>-7.390568391084932</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.78590043116329</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.55061470884262</v>
+        <v>-13.53873999016518</v>
       </c>
       <c r="F65" t="n">
-        <v>2.184840784388154</v>
+        <v>2.178713586658227</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742397845350637</v>
+        <v>-7.742266922322219</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.838278773938719</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.33613660368947</v>
+        <v>-13.32403931586371</v>
       </c>
       <c r="F66" t="n">
-        <v>2.118488993586286</v>
+        <v>2.112335611250675</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.782460292046319</v>
+        <v>-7.783180368702614</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.867883141186665</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.16695786636868</v>
+        <v>-13.15474274781735</v>
       </c>
       <c r="F67" t="n">
-        <v>2.405131872003037</v>
+        <v>2.396517136733181</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.866368860958941</v>
+        <v>-7.865845168845272</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.868665521505233</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.11923642251059</v>
+        <v>-13.1065630733598</v>
       </c>
       <c r="F68" t="n">
-        <v>2.106810659451467</v>
+        <v>2.099871738945352</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.760609238603478</v>
+        <v>-7.761329315259773</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.848783594697412</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.97937135125243</v>
+        <v>-12.96661944828459</v>
       </c>
       <c r="F69" t="n">
-        <v>2.174471680537507</v>
+        <v>2.165647468422184</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.832918027198331</v>
+        <v>-7.833638103854626</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.803380991124707</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.96067554279445</v>
+        <v>-12.94705954783905</v>
       </c>
       <c r="F70" t="n">
-        <v>2.170570174290673</v>
+        <v>2.162295838894702</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.740198338473227</v>
+        <v>-7.741271907306249</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.743922992953086</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.65278385686558</v>
+        <v>-12.63958681560112</v>
       </c>
       <c r="F71" t="n">
-        <v>2.126894252010675</v>
+        <v>2.11843662437492</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.441327249202304</v>
+        <v>-7.444011171284858</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.666134351667845</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.58427183609482</v>
+        <v>-12.57120571785878</v>
       </c>
       <c r="F72" t="n">
-        <v>2.133440403431538</v>
+        <v>2.125454098698085</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.509420316282122</v>
+        <v>-7.511423438616906</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.579195853759842</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.2536780970384</v>
+        <v>-12.24376722378721</v>
       </c>
       <c r="F73" t="n">
-        <v>2.109690966076647</v>
+        <v>2.101652292131827</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.235594802347421</v>
+        <v>-7.239234462537421</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.480543920803566</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.45586252982317</v>
+        <v>-12.44588619505778</v>
       </c>
       <c r="F74" t="n">
-        <v>2.132340649992833</v>
+        <v>2.124563822104848</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.18810901994048</v>
+        <v>-7.19106788038271</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.373795769648406</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.58886723439227</v>
+        <v>-12.57885162271835</v>
       </c>
       <c r="F75" t="n">
-        <v>2.064339229032908</v>
+        <v>2.056562401144922</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.119086399358901</v>
+        <v>-7.121403736961886</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.257560284382745</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.84342087854395</v>
+        <v>-12.83426935885758</v>
       </c>
       <c r="F76" t="n">
-        <v>2.042344160258807</v>
+        <v>2.035064839878808</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.764546838404959</v>
+        <v>-6.768513806166002</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.129568396920771</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.4170994044627</v>
+        <v>-13.40835374616443</v>
       </c>
       <c r="F77" t="n">
-        <v>2.036243147134563</v>
+        <v>2.028754349909096</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.713499949625069</v>
+        <v>-6.716210056313306</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.991117648295146</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.90735377667398</v>
+        <v>-13.8990139797638</v>
       </c>
       <c r="F78" t="n">
-        <v>2.087931558753698</v>
+        <v>2.080180915471396</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.737000633225967</v>
+        <v>-6.738061109756146</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.836484259305547</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.39552647273342</v>
+        <v>-14.38726522964029</v>
       </c>
       <c r="F79" t="n">
-        <v>2.132157357753048</v>
+        <v>2.124590006710531</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.644503513649172</v>
+        <v>-6.644686805888957</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.672647766253408</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.94342625435681</v>
+        <v>-14.93526974968641</v>
       </c>
       <c r="F80" t="n">
-        <v>2.016499954449241</v>
+        <v>2.010006172239744</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.28844524556559</v>
+        <v>-6.289558091307137</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.495076265866754</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.71487710700268</v>
+        <v>-15.7068515253607</v>
       </c>
       <c r="F81" t="n">
-        <v>2.117048840273696</v>
+        <v>2.110136104373265</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.233208819876348</v>
+        <v>-6.233693235081492</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.318516951541729</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.44266512967139</v>
+        <v>-16.43491448638908</v>
       </c>
       <c r="F82" t="n">
-        <v>2.085339282791036</v>
+        <v>2.079107346638374</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.131743472852971</v>
+        <v>-6.132411180297899</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.143840723766959</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.31965303552441</v>
+        <v>-17.31181074612221</v>
       </c>
       <c r="F83" t="n">
-        <v>2.067664673954706</v>
+        <v>2.061144707139526</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.834666029071364</v>
+        <v>-5.835713413298703</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.990237018017776</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.37253603005602</v>
+        <v>-18.36489012519645</v>
       </c>
       <c r="F84" t="n">
-        <v>2.076227040013195</v>
+        <v>2.070518795974202</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.727361514980578</v>
+        <v>-5.727570991826045</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.866201853903373</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.17108794958426</v>
+        <v>-19.16358606005595</v>
       </c>
       <c r="F85" t="n">
-        <v>2.104454044939956</v>
+        <v>2.098379216421395</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.593571272240979</v>
+        <v>-5.593008303218785</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.791164821404799</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.32268690754248</v>
+        <v>-20.31451731056924</v>
       </c>
       <c r="F86" t="n">
-        <v>2.091754511183482</v>
+        <v>2.085758236481971</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.253184490658943</v>
+        <v>-5.253079752236209</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.779093522223475</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.38898951248686</v>
+        <v>-21.38074136169658</v>
       </c>
       <c r="F87" t="n">
-        <v>1.904272734489965</v>
+        <v>1.90044978206018</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.887516472289534</v>
+        <v>-4.888380564277088</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.842461394303741</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.72989007723361</v>
+        <v>-22.72186449559162</v>
       </c>
       <c r="F88" t="n">
-        <v>2.000736821827802</v>
+        <v>1.996442546495716</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661988463537961</v>
+        <v>-4.661962278932277</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.995129002342672</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.10589110589902</v>
+        <v>-24.09880817006164</v>
       </c>
       <c r="F89" t="n">
-        <v>1.871201577511765</v>
+        <v>1.866121764009175</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.274796699296754</v>
+        <v>-4.275268022199056</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.237474570074083</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.57387865433039</v>
+        <v>-25.56701828764133</v>
       </c>
       <c r="F90" t="n">
-        <v>1.653214735197025</v>
+        <v>1.648841906047889</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.165685447413809</v>
+        <v>-4.165279586025716</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.580072091157228</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.21663535339597</v>
+        <v>-27.20989281743248</v>
       </c>
       <c r="F91" t="n">
-        <v>1.446042135029552</v>
+        <v>1.442114444177034</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.060803009348741</v>
+        <v>-4.061077947708418</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.008997125301812</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.80418181137799</v>
+        <v>-28.79860449036741</v>
       </c>
       <c r="F92" t="n">
-        <v>1.321063012102435</v>
+        <v>1.317554274940852</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.789595955982386</v>
+        <v>-3.790145832701739</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.528555468811793</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.65056309654093</v>
+        <v>-30.6454701907355</v>
       </c>
       <c r="F93" t="n">
-        <v>1.181341956175535</v>
+        <v>1.178003418950894</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.777367745128214</v>
+        <v>-3.778467498566919</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.112648931844227</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.72434458976182</v>
+        <v>-32.71995866830984</v>
       </c>
       <c r="F94" t="n">
-        <v>1.066312983408129</v>
+        <v>1.063223199937482</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.768831563675409</v>
+        <v>-3.770415732319257</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.753592664065809</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.75142583874626</v>
+        <v>-34.74772071704206</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6625201791636138</v>
+        <v>0.6593518418759162</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.753042246448287</v>
+        <v>-3.754835891937603</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.424971894976156</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.71901566361791</v>
+        <v>-36.71583423402737</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4423338299714649</v>
+        <v>0.438550154450206</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.968449905103206</v>
+        <v>-3.969824596901587</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.104338730916846</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.8047242447276</v>
+        <v>-38.80205341494789</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05706663424799185</v>
+        <v>0.05388520465745242</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.959691154502091</v>
+        <v>-3.962073953619285</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.780134273837293</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01973240870219</v>
+        <v>-41.01839699381233</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1492025970234024</v>
+        <v>-0.1529731802418195</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.159466603563989</v>
+        <v>-4.161914864195392</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.420911216517492</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39589372835557</v>
+        <v>-43.39505582097371</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.0702298262821107</v>
+        <v>-0.07396113259200264</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.488986773787393</v>
+        <v>-4.491330295996062</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.04787567175187</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79604014681501</v>
+        <v>-45.79607942372353</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3467392622993652</v>
+        <v>-0.3490958768108759</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.66842987653609</v>
+        <v>-4.671441106189687</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.61182007825362</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.1944191043908</v>
+        <v>-48.19449765820786</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2771274880899078</v>
+        <v>-0.2804791176173896</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.940605760312733</v>
+        <v>-4.944507266559568</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.19660493396643</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40577451587255</v>
+        <v>-50.40669097707147</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4252014332298296</v>
+        <v>-0.4283174013061604</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.301403442025021</v>
+        <v>-5.304872902278078</v>
       </c>
     </row>
   </sheetData>
